--- a/Phenoloxidase Activity data/LUI index.xlsx
+++ b/Phenoloxidase Activity data/LUI index.xlsx
@@ -831,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -4328,18 +4328,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="L151" sqref="L151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
